--- a/biology/Zoologie/Euophrys_omnisuperstes/Euophrys_omnisuperstes.xlsx
+++ b/biology/Zoologie/Euophrys_omnisuperstes/Euophrys_omnisuperstes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euophrys omnisuperstes est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euophrys omnisuperstes est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Népal et en Inde en Himalaya[1],[2].
-Elle a été découverte en 1924 par Richard William George Hingston à 6 700 m d'altitude dans le massif de l'Everest[3],[4]. Cela en fait l'organisme non microscopique permanent confirmé le plus haut sur Terre. Elle vit au fond des crevasses et il a été démontré en 1954 qu'elle se nourrit d'insectes gelés transportés sur place par le vent ainsi que de collemboles vivant jusqu'à 6 000 mètres d'altitude et se nourrissant de champignons et de lichens[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Népal et en Inde en Himalaya,.
+Elle a été découverte en 1924 par Richard William George Hingston à 6 700 m d'altitude dans le massif de l'Everest,. Cela en fait l'organisme non microscopique permanent confirmé le plus haut sur Terre. Elle vit au fond des crevasses et il a été démontré en 1954 qu'elle se nourrit d'insectes gelés transportés sur place par le vent ainsi que de collemboles vivant jusqu'à 6 000 mètres d'altitude et se nourrissant de champignons et de lichens,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,8 mm et la femelle paratype 5,0 mm[7].
-C'est une araignée brun foncé, noirâtre avec un reflet métallique sur la tête[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,8 mm et la femelle paratype 5,0 mm.
+C'est une araignée brun foncé, noirâtre avec un reflet métallique sur la tête.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Wanless en 1975.
 </t>
@@ -606,9 +624,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, omnisuperstes, vient du latin et signifie "qui se tient au-dessus de tout", en référence au statut d'organisme non microscopique permanent confirmé le plus haut sur Terre de l'espèce[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, omnisuperstes, vient du latin et signifie "qui se tient au-dessus de tout", en référence au statut d'organisme non microscopique permanent confirmé le plus haut sur Terre de l'espèce.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wanless, 1975 : « Spiders of the family Salticidae from the upper slopes of Everest and Makalu. » Bulletin of the British Arachnological Society, vol. 3, no 5, p. 132-136.</t>
         </is>
